--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7C68FC-AE1B-42BC-99B1-01C8177B836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F3BAB7-3189-4708-9F05-8C0D32F99682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,22 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Şort</t>
   </si>
   <si>
     <t>Gömlek</t>
   </si>
+  <si>
+    <t>mail@mail.com</t>
+  </si>
+  <si>
+    <t>P@$W0RD!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,13 +405,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -404,7 +425,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{39BB500C-8F32-45C1-A0C1-28180EA1382C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>